--- a/Code/Results/Cases/Case_0_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_168/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1473238592623147</v>
+        <v>0.04962106794009458</v>
       </c>
       <c r="D2">
-        <v>0.02202056016641407</v>
+        <v>0.01292181702962836</v>
       </c>
       <c r="E2">
-        <v>1.437863567004555</v>
+        <v>0.420405423978977</v>
       </c>
       <c r="F2">
-        <v>0.6875352714391454</v>
+        <v>0.6495895440787365</v>
       </c>
       <c r="G2">
-        <v>0.0007705437210089494</v>
+        <v>0.002397656997371274</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.892006333095082</v>
+        <v>1.245828889378799</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.657637831534764</v>
+        <v>0.942526300013526</v>
       </c>
       <c r="O2">
-        <v>1.992184531391075</v>
+        <v>2.152650173015303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1272939462930793</v>
+        <v>0.04403899625295082</v>
       </c>
       <c r="D3">
-        <v>0.02010089553502326</v>
+        <v>0.01223368105778988</v>
       </c>
       <c r="E3">
-        <v>1.23247096270282</v>
+        <v>0.3666579407830568</v>
       </c>
       <c r="F3">
-        <v>0.6149874387303953</v>
+        <v>0.638364977579819</v>
       </c>
       <c r="G3">
-        <v>0.0007759058278071183</v>
+        <v>0.002401069707009303</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.380122288216683</v>
+        <v>1.093260312415339</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.666708878376717</v>
+        <v>0.9474121714403552</v>
       </c>
       <c r="O3">
-        <v>1.799398564183548</v>
+        <v>2.130056132609269</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1151320855165352</v>
+        <v>0.0406268345303431</v>
       </c>
       <c r="D4">
-        <v>0.01892141554091964</v>
+        <v>0.01180932565379678</v>
       </c>
       <c r="E4">
-        <v>1.109019096054794</v>
+        <v>0.333758658251142</v>
       </c>
       <c r="F4">
-        <v>0.5722126730658346</v>
+        <v>0.632030633954372</v>
       </c>
       <c r="G4">
-        <v>0.0007792882831896456</v>
+        <v>0.002403274348726983</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.067115345888311</v>
+        <v>0.9994759955066854</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6732734590727887</v>
+        <v>0.9508366414815796</v>
       </c>
       <c r="O4">
-        <v>1.686952667617931</v>
+        <v>2.118075644874352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1102055379629121</v>
+        <v>0.03924014382383234</v>
       </c>
       <c r="D5">
-        <v>0.01844040311132744</v>
+        <v>0.01163595250311644</v>
       </c>
       <c r="E5">
-        <v>1.059276921763825</v>
+        <v>0.3203754819015785</v>
       </c>
       <c r="F5">
-        <v>0.5551857841175263</v>
+        <v>0.6295888737508264</v>
       </c>
       <c r="G5">
-        <v>0.0007806901988686698</v>
+        <v>0.002404200314496861</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.939808898133549</v>
+        <v>0.9612323745772642</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6761885315378038</v>
+        <v>0.9523390176893187</v>
       </c>
       <c r="O5">
-        <v>1.64248644254647</v>
+        <v>2.113666942094</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1093891355613152</v>
+        <v>0.03901011274123789</v>
       </c>
       <c r="D6">
-        <v>0.01836050505348652</v>
+        <v>0.01160713766195087</v>
       </c>
       <c r="E6">
-        <v>1.051048580152539</v>
+        <v>0.3181545776602661</v>
       </c>
       <c r="F6">
-        <v>0.5523817530994535</v>
+        <v>0.6291918293542409</v>
       </c>
       <c r="G6">
-        <v>0.0007809244321443667</v>
+        <v>0.002404355737289941</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.918682468561911</v>
+        <v>0.954880526707683</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6766867845288118</v>
+        <v>0.9525949450972533</v>
       </c>
       <c r="O6">
-        <v>1.635181058413139</v>
+        <v>2.112963405122628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1150655310468949</v>
+        <v>0.04060811783071472</v>
       </c>
       <c r="D7">
-        <v>0.0189149301131657</v>
+        <v>0.01180698926123114</v>
       </c>
       <c r="E7">
-        <v>1.108346095944668</v>
+        <v>0.3335780754203199</v>
       </c>
       <c r="F7">
-        <v>0.5719814579139424</v>
+        <v>0.6319971394399531</v>
       </c>
       <c r="G7">
-        <v>0.0007793070934778282</v>
+        <v>0.002403286724910263</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.065397547994394</v>
+        <v>0.9989603315106024</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6733118141792573</v>
+        <v>0.9508564701445437</v>
       </c>
       <c r="O7">
-        <v>1.686347658154943</v>
+        <v>2.11801427380837</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1403861766144416</v>
+        <v>0.04769317649133598</v>
       </c>
       <c r="D8">
-        <v>0.02135871735640649</v>
+        <v>0.01268493898263046</v>
       </c>
       <c r="E8">
-        <v>1.366426720574836</v>
+        <v>0.4018508782305474</v>
       </c>
       <c r="F8">
-        <v>0.66212788093884</v>
+        <v>0.6456031752630054</v>
       </c>
       <c r="G8">
-        <v>0.0007723744265363624</v>
+        <v>0.002398811084978087</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.715191207397311</v>
+        <v>1.193245948043909</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6605526434246869</v>
+        <v>0.9441229106744444</v>
       </c>
       <c r="O8">
-        <v>1.924398526710235</v>
+        <v>2.144465529364453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1913618211383152</v>
+        <v>0.06171061980923298</v>
       </c>
       <c r="D9">
-        <v>0.02615388821470077</v>
+        <v>0.0143913632052417</v>
       </c>
       <c r="E9">
-        <v>1.898872813459036</v>
+        <v>0.5366419961238051</v>
       </c>
       <c r="F9">
-        <v>0.8549622996218744</v>
+        <v>0.6767415896585334</v>
       </c>
       <c r="G9">
-        <v>0.0007594508001449113</v>
+        <v>0.002390896854943141</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.003634069475709</v>
+        <v>1.573366904529053</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6439272293798695</v>
+        <v>0.9342821536312584</v>
       </c>
       <c r="O9">
-        <v>2.444821119484743</v>
+        <v>2.211466014383262</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2299843108578727</v>
+        <v>0.07208931852680678</v>
       </c>
       <c r="D10">
-        <v>0.02969475337498295</v>
+        <v>0.01563504546786021</v>
       </c>
       <c r="E10">
-        <v>2.314470879738167</v>
+        <v>0.6363744161808569</v>
       </c>
       <c r="F10">
-        <v>1.00952198074134</v>
+        <v>0.7023851014896394</v>
       </c>
       <c r="G10">
-        <v>0.0007502977661837583</v>
+        <v>0.00238560222400546</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.965095249772673</v>
+        <v>1.852102739134693</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6375926538566574</v>
+        <v>0.929097762690887</v>
       </c>
       <c r="O10">
-        <v>2.869995422857329</v>
+        <v>2.270082799337075</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2478997355500496</v>
+        <v>0.07682932242371976</v>
       </c>
       <c r="D11">
-        <v>0.03131403864785653</v>
+        <v>0.01619850831516345</v>
       </c>
       <c r="E11">
-        <v>2.511045843293715</v>
+        <v>0.6819302421404245</v>
       </c>
       <c r="F11">
-        <v>1.083412948514649</v>
+        <v>0.7146624658699636</v>
       </c>
       <c r="G11">
-        <v>0.0007461910473465692</v>
+        <v>0.002383305215070309</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.407289154779392</v>
+        <v>1.978790434671623</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6361771809814485</v>
+        <v>0.9271826170428739</v>
       </c>
       <c r="O11">
-        <v>3.075279539982404</v>
+        <v>2.298825373109565</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2547420091625838</v>
+        <v>0.07862698923295852</v>
       </c>
       <c r="D12">
-        <v>0.0319289116539565</v>
+        <v>0.01641153300662523</v>
       </c>
       <c r="E12">
-        <v>2.58678248699583</v>
+        <v>0.6992104378620354</v>
       </c>
       <c r="F12">
-        <v>1.11198218087317</v>
+        <v>0.7194004037284145</v>
       </c>
       <c r="G12">
-        <v>0.0007446425353625996</v>
+        <v>0.002382451342821165</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.575578245634404</v>
+        <v>2.02674729041712</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6358697206971584</v>
+        <v>0.9265210791724456</v>
       </c>
       <c r="O12">
-        <v>3.154965269291409</v>
+        <v>2.310011032667802</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2532656767188541</v>
+        <v>0.07823970739364938</v>
       </c>
       <c r="D13">
-        <v>0.03179640458062494</v>
+        <v>0.01636566999562916</v>
       </c>
       <c r="E13">
-        <v>2.570409701266755</v>
+        <v>0.6954875033036672</v>
       </c>
       <c r="F13">
-        <v>1.105801857957601</v>
+        <v>0.7183760439483677</v>
       </c>
       <c r="G13">
-        <v>0.0007449757684242134</v>
+        <v>0.002382634531326141</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.539294292977502</v>
+        <v>2.01641969821037</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6359254714928397</v>
+        <v>0.9266607214883464</v>
       </c>
       <c r="O13">
-        <v>3.137712666410692</v>
+        <v>2.307588549101325</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.248461438198774</v>
+        <v>0.076977162584285</v>
       </c>
       <c r="D14">
-        <v>0.03136458791734498</v>
+        <v>0.01621604102183483</v>
       </c>
       <c r="E14">
-        <v>2.517249366725991</v>
+        <v>0.6833512959150738</v>
       </c>
       <c r="F14">
-        <v>1.085751114335267</v>
+        <v>0.7150504754790319</v>
       </c>
       <c r="G14">
-        <v>0.0007460635276606174</v>
+        <v>0.002383234647290859</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.421116662011514</v>
+        <v>1.982736221580694</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6361471976618418</v>
+        <v>0.9271269158345206</v>
       </c>
       <c r="O14">
-        <v>3.081794779416697</v>
+        <v>2.299739566437893</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2455265319229483</v>
+        <v>0.07620417429285453</v>
       </c>
       <c r="D15">
-        <v>0.031100322237954</v>
+        <v>0.01612434335194735</v>
       </c>
       <c r="E15">
-        <v>2.484863169844559</v>
+        <v>0.6759213888976348</v>
       </c>
       <c r="F15">
-        <v>1.073548397194671</v>
+        <v>0.7130250514573646</v>
       </c>
       <c r="G15">
-        <v>0.0007467306223039976</v>
+        <v>0.002383604311113475</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.348843489576439</v>
+        <v>1.962101869629407</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6363133316456242</v>
+        <v>0.9274207657112754</v>
       </c>
       <c r="O15">
-        <v>3.047804968989055</v>
+        <v>2.294971179596445</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2288211496272936</v>
+        <v>0.07177992778505882</v>
       </c>
       <c r="D16">
-        <v>0.02958913815625408</v>
+        <v>0.01559817425471977</v>
       </c>
       <c r="E16">
-        <v>2.301793321405228</v>
+        <v>0.6334011953148178</v>
       </c>
       <c r="F16">
-        <v>1.004771172449111</v>
+        <v>0.7015951268582228</v>
       </c>
       <c r="G16">
-        <v>0.0007505671662675911</v>
+        <v>0.002385754576001273</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.936305970088767</v>
+        <v>1.843821078163558</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6377161354317735</v>
+        <v>0.9292318366585874</v>
       </c>
       <c r="O16">
-        <v>2.856838539183002</v>
+        <v>2.268246442005278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2186671944808154</v>
+        <v>0.06907061174422324</v>
       </c>
       <c r="D17">
-        <v>0.02866456010417551</v>
+        <v>0.01527478701355989</v>
       </c>
       <c r="E17">
-        <v>2.191555639277411</v>
+        <v>0.607365965934676</v>
       </c>
       <c r="F17">
-        <v>0.9635453572264652</v>
+        <v>0.6947405267837183</v>
       </c>
       <c r="G17">
-        <v>0.0007529342999498667</v>
+        <v>0.002387102202979668</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.684561026395727</v>
+        <v>1.771230506929669</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6389642845240786</v>
+        <v>0.9304563581594465</v>
       </c>
       <c r="O17">
-        <v>2.74289060746932</v>
+        <v>2.252385714757736</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2128589123932443</v>
+        <v>0.06751404059411925</v>
       </c>
       <c r="D18">
-        <v>0.02813353787398398</v>
+        <v>0.01508856822427873</v>
       </c>
       <c r="E18">
-        <v>2.128842643725974</v>
+        <v>0.5924086574511449</v>
       </c>
       <c r="F18">
-        <v>0.9401655572649332</v>
+        <v>0.690855500854596</v>
       </c>
       <c r="G18">
-        <v>0.0007543012874173046</v>
+        <v>0.002387887826756053</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.540207935932074</v>
+        <v>1.729467982302936</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6398190277646023</v>
+        <v>0.931202394908766</v>
       </c>
       <c r="O18">
-        <v>2.6784519801204</v>
+        <v>2.243458424265185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2108975842211578</v>
+        <v>0.06698731257687029</v>
       </c>
       <c r="D19">
-        <v>0.02795386260631716</v>
+        <v>0.01502548132494042</v>
       </c>
       <c r="E19">
-        <v>2.107721999982758</v>
+        <v>0.5873473002627634</v>
       </c>
       <c r="F19">
-        <v>0.9323045136413555</v>
+        <v>0.6895499604803348</v>
       </c>
       <c r="G19">
-        <v>0.000754765111423028</v>
+        <v>0.002388155632006235</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.491404525005123</v>
+        <v>1.715326166129216</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6401314203885988</v>
+        <v>0.9314621581226277</v>
       </c>
       <c r="O19">
-        <v>2.656816378239739</v>
+        <v>2.240469271021539</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2197447302828124</v>
+        <v>0.06935884102800571</v>
       </c>
       <c r="D20">
-        <v>0.02876290020779493</v>
+        <v>0.01530923451086608</v>
       </c>
       <c r="E20">
-        <v>2.203217457803561</v>
+        <v>0.610135636214423</v>
       </c>
       <c r="F20">
-        <v>0.9678990295840606</v>
+        <v>0.6954642480693707</v>
       </c>
       <c r="G20">
-        <v>0.0007526817587727819</v>
+        <v>0.002386957659322998</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.71131275326502</v>
+        <v>1.778958976274794</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6388171317018561</v>
+        <v>0.9303216878772815</v>
       </c>
       <c r="O20">
-        <v>2.754904924257886</v>
+        <v>2.254053875483834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2498709118422511</v>
+        <v>0.0773479281512266</v>
       </c>
       <c r="D21">
-        <v>0.03149137312713179</v>
+        <v>0.0162600002118225</v>
       </c>
       <c r="E21">
-        <v>2.532826722876706</v>
+        <v>0.686915183481446</v>
       </c>
       <c r="F21">
-        <v>1.091623908913817</v>
+        <v>0.7160248603631914</v>
       </c>
       <c r="G21">
-        <v>0.0007457438605437857</v>
+        <v>0.002383057946425497</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.455804243237935</v>
+        <v>1.992630346010344</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6360757183895061</v>
+        <v>0.92698825521326</v>
       </c>
       <c r="O21">
-        <v>3.098164245987363</v>
+        <v>2.302036799241449</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.269903265624805</v>
+        <v>0.08258519274907883</v>
       </c>
       <c r="D22">
-        <v>0.03328468689833386</v>
+        <v>0.01687935372787308</v>
       </c>
       <c r="E22">
-        <v>2.755937161568411</v>
+        <v>0.7372663018511645</v>
       </c>
       <c r="F22">
-        <v>1.175955035063708</v>
+        <v>0.7299801647392599</v>
       </c>
       <c r="G22">
-        <v>0.0007412472040357574</v>
+        <v>0.002380602218182366</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.947349628103893</v>
+        <v>2.132177200251874</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6356257672840968</v>
+        <v>0.9251808576980949</v>
       </c>
       <c r="O22">
-        <v>3.333999067010041</v>
+        <v>2.335154895486909</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2591772195813036</v>
+        <v>0.07978849350728012</v>
       </c>
       <c r="D23">
-        <v>0.03232646252966731</v>
+        <v>0.01654898391379334</v>
       </c>
       <c r="E23">
-        <v>2.636074345800239</v>
+        <v>0.7103765273660798</v>
       </c>
       <c r="F23">
-        <v>1.130601869703341</v>
+        <v>0.7224843285754474</v>
       </c>
       <c r="G23">
-        <v>0.0007436442864008038</v>
+        <v>0.002381904408587122</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.684493798030758</v>
+        <v>2.057707907090673</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.635736810506117</v>
+        <v>0.9261115510170725</v>
       </c>
       <c r="O23">
-        <v>3.206989952907662</v>
+        <v>2.31731733653308</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2192574855108234</v>
+        <v>0.0692285293008581</v>
       </c>
       <c r="D24">
-        <v>0.02871843902951809</v>
+        <v>0.01529366172739799</v>
       </c>
       <c r="E24">
-        <v>2.197943097017699</v>
+        <v>0.6088834351730554</v>
       </c>
       <c r="F24">
-        <v>0.9659297384399395</v>
+        <v>0.6951368799999926</v>
       </c>
       <c r="G24">
-        <v>0.0007527959135015329</v>
+        <v>0.002387022973648899</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.699217129667943</v>
+        <v>1.77546502627581</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6388832335706098</v>
+        <v>0.9303824413451309</v>
       </c>
       <c r="O24">
-        <v>2.749469931914433</v>
+        <v>2.253299104488207</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1773943836074778</v>
+        <v>0.05790480700261469</v>
       </c>
       <c r="D25">
-        <v>0.02485487119739815</v>
+        <v>0.01393143906858185</v>
       </c>
       <c r="E25">
-        <v>1.751214631829924</v>
+        <v>0.5000650137081095</v>
       </c>
       <c r="F25">
-        <v>0.8007753853230781</v>
+        <v>0.6678356218368293</v>
       </c>
       <c r="G25">
-        <v>0.0007628816551976905</v>
+        <v>0.002392946134286803</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.652956808412569</v>
+        <v>1.470628337743904</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6474516576860836</v>
+        <v>0.9365847815803221</v>
       </c>
       <c r="O25">
-        <v>2.297309149652534</v>
+        <v>2.191703566713613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_168/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04962106794009458</v>
+        <v>0.1473238592621868</v>
       </c>
       <c r="D2">
-        <v>0.01292181702962836</v>
+        <v>0.02202056016641407</v>
       </c>
       <c r="E2">
-        <v>0.420405423978977</v>
+        <v>1.437863567004555</v>
       </c>
       <c r="F2">
-        <v>0.6495895440787365</v>
+        <v>0.6875352714391454</v>
       </c>
       <c r="G2">
-        <v>0.002397656997371274</v>
+        <v>0.0007705437210374306</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.245828889378799</v>
+        <v>3.892006333095082</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.942526300013526</v>
+        <v>0.657637831534764</v>
       </c>
       <c r="O2">
-        <v>2.152650173015303</v>
+        <v>1.992184531391075</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04403899625295082</v>
+        <v>0.1272939462930793</v>
       </c>
       <c r="D3">
-        <v>0.01223368105778988</v>
+        <v>0.02010089553513694</v>
       </c>
       <c r="E3">
-        <v>0.3666579407830568</v>
+        <v>1.232470962702806</v>
       </c>
       <c r="F3">
-        <v>0.638364977579819</v>
+        <v>0.6149874387303953</v>
       </c>
       <c r="G3">
-        <v>0.002401069707009303</v>
+        <v>0.0007759058278353692</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.093260312415339</v>
+        <v>3.380122288216683</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9474121714403552</v>
+        <v>0.6667088783767099</v>
       </c>
       <c r="O3">
-        <v>2.130056132609269</v>
+        <v>1.799398564183548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0406268345303431</v>
+        <v>0.1151320855162936</v>
       </c>
       <c r="D4">
-        <v>0.01180932565379678</v>
+        <v>0.01892141554068161</v>
       </c>
       <c r="E4">
-        <v>0.333758658251142</v>
+        <v>1.109019096054794</v>
       </c>
       <c r="F4">
-        <v>0.632030633954372</v>
+        <v>0.5722126730658346</v>
       </c>
       <c r="G4">
-        <v>0.002403274348726983</v>
+        <v>0.0007792882831604377</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9994759955066854</v>
+        <v>3.06711534588834</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9508366414815796</v>
+        <v>0.6732734590727745</v>
       </c>
       <c r="O4">
-        <v>2.118075644874352</v>
+        <v>1.686952667617931</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03924014382383234</v>
+        <v>0.1102055379629263</v>
       </c>
       <c r="D5">
-        <v>0.01163595250311644</v>
+        <v>0.01844040311156547</v>
       </c>
       <c r="E5">
-        <v>0.3203754819015785</v>
+        <v>1.059276921763868</v>
       </c>
       <c r="F5">
-        <v>0.6295888737508264</v>
+        <v>0.5551857841175263</v>
       </c>
       <c r="G5">
-        <v>0.002404200314496861</v>
+        <v>0.0007806901989199454</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9612323745772642</v>
+        <v>2.939808898133577</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9523390176893187</v>
+        <v>0.6761885315378677</v>
       </c>
       <c r="O5">
-        <v>2.113666942094</v>
+        <v>1.64248644254647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03901011274123789</v>
+        <v>0.10938913556096</v>
       </c>
       <c r="D6">
-        <v>0.01160713766195087</v>
+        <v>0.0183605050532023</v>
       </c>
       <c r="E6">
-        <v>0.3181545776602661</v>
+        <v>1.051048580152553</v>
       </c>
       <c r="F6">
-        <v>0.6291918293542409</v>
+        <v>0.5523817530994606</v>
       </c>
       <c r="G6">
-        <v>0.002404355737289941</v>
+        <v>0.0007809244321459887</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.954880526707683</v>
+        <v>2.918682468561883</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9525949450972533</v>
+        <v>0.676686784528826</v>
       </c>
       <c r="O6">
-        <v>2.112963405122628</v>
+        <v>1.635181058413082</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04060811783071472</v>
+        <v>0.1150655310468949</v>
       </c>
       <c r="D7">
-        <v>0.01180698926123114</v>
+        <v>0.01891493011293477</v>
       </c>
       <c r="E7">
-        <v>0.3335780754203199</v>
+        <v>1.108346095944668</v>
       </c>
       <c r="F7">
-        <v>0.6319971394399531</v>
+        <v>0.5719814579139282</v>
       </c>
       <c r="G7">
-        <v>0.002403286724910263</v>
+        <v>0.0007793070935029592</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9989603315106024</v>
+        <v>3.065397547994422</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9508564701445437</v>
+        <v>0.6733118141791863</v>
       </c>
       <c r="O7">
-        <v>2.11801427380837</v>
+        <v>1.686347658154943</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04769317649133598</v>
+        <v>0.1403861766144274</v>
       </c>
       <c r="D8">
-        <v>0.01268493898263046</v>
+        <v>0.0213587173563532</v>
       </c>
       <c r="E8">
-        <v>0.4018508782305474</v>
+        <v>1.366426720574836</v>
       </c>
       <c r="F8">
-        <v>0.6456031752630054</v>
+        <v>0.66212788093884</v>
       </c>
       <c r="G8">
-        <v>0.002398811084978087</v>
+        <v>0.0007723744265089078</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.193245948043909</v>
+        <v>3.715191207397368</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9441229106744444</v>
+        <v>0.660552643424694</v>
       </c>
       <c r="O8">
-        <v>2.144465529364453</v>
+        <v>1.924398526710235</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06171061980923298</v>
+        <v>0.1913618211383152</v>
       </c>
       <c r="D9">
-        <v>0.0143913632052417</v>
+        <v>0.02615388821470788</v>
       </c>
       <c r="E9">
-        <v>0.5366419961238051</v>
+        <v>1.89887281345905</v>
       </c>
       <c r="F9">
-        <v>0.6767415896585334</v>
+        <v>0.8549622996218886</v>
       </c>
       <c r="G9">
-        <v>0.002390896854943141</v>
+        <v>0.0007594508001455836</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.573366904529053</v>
+        <v>5.003634069475936</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9342821536312584</v>
+        <v>0.6439272293798695</v>
       </c>
       <c r="O9">
-        <v>2.211466014383262</v>
+        <v>2.4448211194848</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07208931852680678</v>
+        <v>0.229984310857887</v>
       </c>
       <c r="D10">
-        <v>0.01563504546786021</v>
+        <v>0.02969475337476268</v>
       </c>
       <c r="E10">
-        <v>0.6363744161808569</v>
+        <v>2.314470879738167</v>
       </c>
       <c r="F10">
-        <v>0.7023851014896394</v>
+        <v>1.009521980741354</v>
       </c>
       <c r="G10">
-        <v>0.00238560222400546</v>
+        <v>0.0007502977661846266</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.852102739134693</v>
+        <v>5.965095249772787</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.929097762690887</v>
+        <v>0.6375926538566574</v>
       </c>
       <c r="O10">
-        <v>2.270082799337075</v>
+        <v>2.869995422857301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07682932242371976</v>
+        <v>0.2478997355500496</v>
       </c>
       <c r="D11">
-        <v>0.01619850831516345</v>
+        <v>0.03131403864777837</v>
       </c>
       <c r="E11">
-        <v>0.6819302421404245</v>
+        <v>2.511045843293687</v>
       </c>
       <c r="F11">
-        <v>0.7146624658699636</v>
+        <v>1.083412948514663</v>
       </c>
       <c r="G11">
-        <v>0.002383305215070309</v>
+        <v>0.0007461910474147827</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.978790434671623</v>
+        <v>6.407289154779278</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9271826170428739</v>
+        <v>0.6361771809814485</v>
       </c>
       <c r="O11">
-        <v>2.298825373109565</v>
+        <v>3.075279539982347</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07862698923295852</v>
+        <v>0.2547420091626975</v>
       </c>
       <c r="D12">
-        <v>0.01641153300662523</v>
+        <v>0.03192891165403466</v>
       </c>
       <c r="E12">
-        <v>0.6992104378620354</v>
+        <v>2.586782486995844</v>
       </c>
       <c r="F12">
-        <v>0.7194004037284145</v>
+        <v>1.111982180873142</v>
       </c>
       <c r="G12">
-        <v>0.002382451342821165</v>
+        <v>0.0007446425353295884</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.02674729041712</v>
+        <v>6.57557824563446</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9265210791724456</v>
+        <v>0.6358697206971584</v>
       </c>
       <c r="O12">
-        <v>2.310011032667802</v>
+        <v>3.154965269291381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07823970739364938</v>
+        <v>0.2532656767189962</v>
       </c>
       <c r="D13">
-        <v>0.01636566999562916</v>
+        <v>0.03179640458050415</v>
       </c>
       <c r="E13">
-        <v>0.6954875033036672</v>
+        <v>2.570409701266769</v>
       </c>
       <c r="F13">
-        <v>0.7183760439483677</v>
+        <v>1.105801857957616</v>
       </c>
       <c r="G13">
-        <v>0.002382634531326141</v>
+        <v>0.0007449757684581115</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.01641969821037</v>
+        <v>6.539294292977502</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9266607214883464</v>
+        <v>0.6359254714928255</v>
       </c>
       <c r="O13">
-        <v>2.307588549101325</v>
+        <v>3.137712666410664</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.076977162584285</v>
+        <v>0.2484614381983761</v>
       </c>
       <c r="D14">
-        <v>0.01621604102183483</v>
+        <v>0.03136458791756525</v>
       </c>
       <c r="E14">
-        <v>0.6833512959150738</v>
+        <v>2.517249366726034</v>
       </c>
       <c r="F14">
-        <v>0.7150504754790319</v>
+        <v>1.085751114335267</v>
       </c>
       <c r="G14">
-        <v>0.002383234647290859</v>
+        <v>0.0007460635276043614</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.982736221580694</v>
+        <v>6.421116662011684</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9271269158345206</v>
+        <v>0.6361471976618986</v>
       </c>
       <c r="O14">
-        <v>2.299739566437893</v>
+        <v>3.081794779416754</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07620417429285453</v>
+        <v>0.2455265319227777</v>
       </c>
       <c r="D15">
-        <v>0.01612434335194735</v>
+        <v>0.03110032223799664</v>
       </c>
       <c r="E15">
-        <v>0.6759213888976348</v>
+        <v>2.484863169844559</v>
       </c>
       <c r="F15">
-        <v>0.7130250514573646</v>
+        <v>1.073548397194656</v>
       </c>
       <c r="G15">
-        <v>0.002383604311113475</v>
+        <v>0.0007467306223100742</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.962101869629407</v>
+        <v>6.348843489576495</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9274207657112754</v>
+        <v>0.6363133316456242</v>
       </c>
       <c r="O15">
-        <v>2.294971179596445</v>
+        <v>3.047804968989112</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07177992778505882</v>
+        <v>0.2288211496272936</v>
       </c>
       <c r="D16">
-        <v>0.01559817425471977</v>
+        <v>0.02958913815612618</v>
       </c>
       <c r="E16">
-        <v>0.6334011953148178</v>
+        <v>2.301793321405256</v>
       </c>
       <c r="F16">
-        <v>0.7015951268582228</v>
+        <v>1.004771172449139</v>
       </c>
       <c r="G16">
-        <v>0.002385754576001273</v>
+        <v>0.0007505671662627606</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.843821078163558</v>
+        <v>5.936305970088654</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9292318366585874</v>
+        <v>0.6377161354317735</v>
       </c>
       <c r="O16">
-        <v>2.268246442005278</v>
+        <v>2.856838539183002</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06907061174422324</v>
+        <v>0.2186671944810854</v>
       </c>
       <c r="D17">
-        <v>0.01527478701355989</v>
+        <v>0.02866456010410445</v>
       </c>
       <c r="E17">
-        <v>0.607365965934676</v>
+        <v>2.191555639277411</v>
       </c>
       <c r="F17">
-        <v>0.6947405267837183</v>
+        <v>0.9635453572264652</v>
       </c>
       <c r="G17">
-        <v>0.002387102202979668</v>
+        <v>0.0007529342999169788</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.771230506929669</v>
+        <v>5.684561026395727</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9304563581594465</v>
+        <v>0.6389642845241355</v>
       </c>
       <c r="O17">
-        <v>2.252385714757736</v>
+        <v>2.742890607469349</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06751404059411925</v>
+        <v>0.2128589123932585</v>
       </c>
       <c r="D18">
-        <v>0.01508856822427873</v>
+        <v>0.0281335378738774</v>
       </c>
       <c r="E18">
-        <v>0.5924086574511449</v>
+        <v>2.128842643726017</v>
       </c>
       <c r="F18">
-        <v>0.690855500854596</v>
+        <v>0.9401655572649332</v>
       </c>
       <c r="G18">
-        <v>0.002387887826756053</v>
+        <v>0.000754301287360426</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.729467982302936</v>
+        <v>5.540207935932074</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.931202394908766</v>
+        <v>0.6398190277646592</v>
       </c>
       <c r="O18">
-        <v>2.243458424265185</v>
+        <v>2.678451980120485</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06698731257687029</v>
+        <v>0.2108975842211578</v>
       </c>
       <c r="D19">
-        <v>0.01502548132494042</v>
+        <v>0.02795386260660848</v>
       </c>
       <c r="E19">
-        <v>0.5873473002627634</v>
+        <v>2.107721999982786</v>
       </c>
       <c r="F19">
-        <v>0.6895499604803348</v>
+        <v>0.9323045136413413</v>
       </c>
       <c r="G19">
-        <v>0.002388155632006235</v>
+        <v>0.0007547651114823695</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.715326166129216</v>
+        <v>5.491404525005066</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9314621581226277</v>
+        <v>0.6401314203885562</v>
       </c>
       <c r="O19">
-        <v>2.240469271021539</v>
+        <v>2.656816378239796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06935884102800571</v>
+        <v>0.2197447302826987</v>
       </c>
       <c r="D20">
-        <v>0.01530923451086608</v>
+        <v>0.02876290020779493</v>
       </c>
       <c r="E20">
-        <v>0.610135636214423</v>
+        <v>2.203217457803547</v>
       </c>
       <c r="F20">
-        <v>0.6954642480693707</v>
+        <v>0.9678990295840464</v>
       </c>
       <c r="G20">
-        <v>0.002386957659322998</v>
+        <v>0.0007526817588004442</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.778958976274794</v>
+        <v>5.711312753264963</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9303216878772815</v>
+        <v>0.6388171317017992</v>
       </c>
       <c r="O20">
-        <v>2.254053875483834</v>
+        <v>2.754904924257886</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0773479281512266</v>
+        <v>0.2498709118422937</v>
       </c>
       <c r="D21">
-        <v>0.0162600002118225</v>
+        <v>0.03149137312702521</v>
       </c>
       <c r="E21">
-        <v>0.686915183481446</v>
+        <v>2.532826722876706</v>
       </c>
       <c r="F21">
-        <v>0.7160248603631914</v>
+        <v>1.091623908913832</v>
       </c>
       <c r="G21">
-        <v>0.002383057946425497</v>
+        <v>0.0007457438605787447</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.992630346010344</v>
+        <v>6.455804243237992</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.92698825521326</v>
+        <v>0.6360757183895061</v>
       </c>
       <c r="O21">
-        <v>2.302036799241449</v>
+        <v>3.098164245987363</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08258519274907883</v>
+        <v>0.2699032656247056</v>
       </c>
       <c r="D22">
-        <v>0.01687935372787308</v>
+        <v>0.03328468689815622</v>
       </c>
       <c r="E22">
-        <v>0.7372663018511645</v>
+        <v>2.755937161568454</v>
       </c>
       <c r="F22">
-        <v>0.7299801647392599</v>
+        <v>1.175955035063694</v>
       </c>
       <c r="G22">
-        <v>0.002380602218182366</v>
+        <v>0.0007412472040294101</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.132177200251874</v>
+        <v>6.947349628103893</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9251808576980949</v>
+        <v>0.63562576728404</v>
       </c>
       <c r="O22">
-        <v>2.335154895486909</v>
+        <v>3.333999067010097</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07978849350728012</v>
+        <v>0.2591772195813178</v>
       </c>
       <c r="D23">
-        <v>0.01654898391379334</v>
+        <v>0.03232646252979521</v>
       </c>
       <c r="E23">
-        <v>0.7103765273660798</v>
+        <v>2.636074345800253</v>
       </c>
       <c r="F23">
-        <v>0.7224843285754474</v>
+        <v>1.130601869703327</v>
       </c>
       <c r="G23">
-        <v>0.002381904408587122</v>
+        <v>0.000743644286471191</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.057707907090673</v>
+        <v>6.684493798030701</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9261115510170725</v>
+        <v>0.6357368105061738</v>
       </c>
       <c r="O23">
-        <v>2.31731733653308</v>
+        <v>3.206989952907691</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0692285293008581</v>
+        <v>0.2192574855109228</v>
       </c>
       <c r="D24">
-        <v>0.01529366172739799</v>
+        <v>0.02871843902975968</v>
       </c>
       <c r="E24">
-        <v>0.6088834351730554</v>
+        <v>2.197943097017742</v>
       </c>
       <c r="F24">
-        <v>0.6951368799999926</v>
+        <v>0.9659297384399537</v>
       </c>
       <c r="G24">
-        <v>0.002387022973648899</v>
+        <v>0.0007527959135008588</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.77546502627581</v>
+        <v>5.699217129667772</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9303824413451309</v>
+        <v>0.6388832335706667</v>
       </c>
       <c r="O24">
-        <v>2.253299104488207</v>
+        <v>2.749469931914433</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05790480700261469</v>
+        <v>0.1773943836074636</v>
       </c>
       <c r="D25">
-        <v>0.01393143906858185</v>
+        <v>0.02485487119757224</v>
       </c>
       <c r="E25">
-        <v>0.5000650137081095</v>
+        <v>1.751214631829924</v>
       </c>
       <c r="F25">
-        <v>0.6678356218368293</v>
+        <v>0.8007753853230781</v>
       </c>
       <c r="G25">
-        <v>0.002392946134286803</v>
+        <v>0.0007628816552258608</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.470628337743904</v>
+        <v>4.652956808412569</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9365847815803221</v>
+        <v>0.6474516576860765</v>
       </c>
       <c r="O25">
-        <v>2.191703566713613</v>
+        <v>2.297309149652506</v>
       </c>
     </row>
   </sheetData>
